--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEPYDI\Downloads\capg\Cucumber_\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEPYDI\Downloads\capg\Cucumber__\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925EAF88-C7A2-4805-BF52-BAA76A459182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB371264-8EC2-49F3-AF91-1E1656132231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DB29FCB3-2A45-4352-AB17-079B9402E3FA}"/>
   </bookViews>
@@ -36,9 +36,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>gfuygyuetjkjgsryuuhgr</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>TC_Name</t>
+  </si>
+  <si>
+    <t>gfr6657fr6fg</t>
+  </si>
+  <si>
+    <t>mobiles</t>
+  </si>
+  <si>
+    <t>chocolate gift hamper</t>
+  </si>
+  <si>
+    <t>panda teddy</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>Verify that the user can able to search a product</t>
+  </si>
+  <si>
+    <t>Verify user can able to search invalid product</t>
+  </si>
+  <si>
+    <t>Verify user search chocolate gift hamper product</t>
+  </si>
+  <si>
+    <t>Verify user search panda teddy product</t>
+  </si>
+  <si>
+    <t>Verify user search  bag product</t>
+  </si>
+  <si>
+    <t>TypeValue</t>
   </si>
 </sst>
 </file>
@@ -390,18 +423,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD504B8-7EE9-40CC-844E-67831190688F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.1796875" customWidth="1"/>
+    <col min="1" max="1" width="65.6328125" customWidth="1"/>
+    <col min="2" max="2" width="53.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
